--- a/nomii_real/data/wallet_transactions.xlsx
+++ b/nomii_real/data/wallet_transactions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="51">
   <si>
     <t>TransactionID</t>
   </si>
@@ -43,6 +43,54 @@
     <t>d1ec4886-e7ab-4160-ab89-10954175e0c5</t>
   </si>
   <si>
+    <t>aa45270b-e681-4c3a-b135-158beb877dd8</t>
+  </si>
+  <si>
+    <t>925a579f-0d74-49b8-9e60-f47984d8ce12</t>
+  </si>
+  <si>
+    <t>5094161e-b960-4117-b287-9a6496f3c37a</t>
+  </si>
+  <si>
+    <t>9d9b44b3-78e7-424c-a863-8382583efc88</t>
+  </si>
+  <si>
+    <t>64d4f5fa-1b9a-4637-95db-3897eac5e11f</t>
+  </si>
+  <si>
+    <t>55564ace-2267-49e3-a7f7-ce79b06efc35</t>
+  </si>
+  <si>
+    <t>f0e8a2d7-d35d-47ce-a1aa-3dd6a16e5ac2</t>
+  </si>
+  <si>
+    <t>b17fd9d3-ab4f-4d88-a217-28850186e939</t>
+  </si>
+  <si>
+    <t>ac6bb0db-7cca-4998-8690-a8ec41d5e67a</t>
+  </si>
+  <si>
+    <t>20193007-f5e7-4778-a459-0d2c5535e4a5</t>
+  </si>
+  <si>
+    <t>5ed4213b-db4d-4152-ab7a-936c78cd97ef</t>
+  </si>
+  <si>
+    <t>ca15432e-d936-47da-ad2c-e73e395272dd</t>
+  </si>
+  <si>
+    <t>659e23a0-0c33-4921-bf3d-290f6b875a33</t>
+  </si>
+  <si>
+    <t>e3965d49-10ce-4f9a-913c-59988cee7b41</t>
+  </si>
+  <si>
+    <t>a24054ed-213d-4d55-9f7d-7937065399d5</t>
+  </si>
+  <si>
+    <t>72f84b03-c371-4829-bb7d-a19d4b4b1144</t>
+  </si>
+  <si>
     <t>fdf12335-2c41-40b8-a607-920ff9af1019</t>
   </si>
   <si>
@@ -61,10 +109,64 @@
     <t>2025-08-07 00:05:29</t>
   </si>
   <si>
+    <t>2025-08-07 13:31:49</t>
+  </si>
+  <si>
+    <t>2025-08-07 14:06:13</t>
+  </si>
+  <si>
+    <t>2025-08-07 14:06:52</t>
+  </si>
+  <si>
+    <t>2025-08-07 14:07:03</t>
+  </si>
+  <si>
+    <t>2025-08-07 21:13:22</t>
+  </si>
+  <si>
+    <t>2025-08-07 21:14:03</t>
+  </si>
+  <si>
+    <t>2025-08-07 22:54:34</t>
+  </si>
+  <si>
+    <t>2025-08-07 22:54:55</t>
+  </si>
+  <si>
+    <t>2025-08-07 22:54:57</t>
+  </si>
+  <si>
+    <t>2025-08-07 23:00:24</t>
+  </si>
+  <si>
+    <t>2025-08-07 23:00:27</t>
+  </si>
+  <si>
+    <t>2025-08-07 23:02:17</t>
+  </si>
+  <si>
+    <t>2025-08-07 23:11:56</t>
+  </si>
+  <si>
+    <t>2025-08-07 23:11:58</t>
+  </si>
+  <si>
+    <t>2025-08-07 23:14:24</t>
+  </si>
+  <si>
     <t>Wallet top-up</t>
   </si>
   <si>
     <t>Payment for order all</t>
+  </si>
+  <si>
+    <t>Payment for order add6407f-8225-46ae-be70-e5a3c9a9b5c7</t>
+  </si>
+  <si>
+    <t>Payment for order 89bdc2f6-0e22-47a8-b4f2-b7b5696fc495</t>
+  </si>
+  <si>
+    <t>Payment for order 0947da20-6ab3-444d-97b4-2aa9c1662a75</t>
   </si>
 </sst>
 </file>
@@ -422,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -453,19 +555,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C2">
         <v>500</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -473,19 +575,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -493,19 +595,339 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C4">
         <v>1000</v>
       </c>
       <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="E4" t="s">
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6">
+        <v>800</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9">
+        <v>881.53</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
         <v>14</v>
       </c>
-      <c r="F4" t="s">
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10">
+        <v>881.53</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
         <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11">
+        <v>300</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12">
+        <v>200</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13">
+        <v>881.53</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14">
+        <v>1000</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15">
+        <v>881.53</v>
+      </c>
+      <c r="D15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16">
+        <v>73.5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17">
+        <v>2000</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18">
+        <v>73.5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19">
+        <v>881.53</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20">
+        <v>182.9</v>
+      </c>
+      <c r="D20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
